--- a/en/downloads/data-excel/8.3.1.2.xlsx
+++ b/en/downloads/data-excel/8.3.1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,10 +72,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +134,10 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Kyrghyz Times"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,6 +176,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -178,7 +192,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -212,6 +226,13 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -496,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -508,7 +529,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -519,7 +540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -530,7 +551,7 @@
       <c r="H2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -561,8 +582,11 @@
       <c r="J3" s="6">
         <v>2019</v>
       </c>
+      <c r="K3" s="12">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -593,8 +617,11 @@
       <c r="J4" s="9">
         <v>3</v>
       </c>
+      <c r="K4" s="13">
+        <v>2.8218550629805335</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -625,8 +652,11 @@
       <c r="J5" s="10">
         <v>1.4</v>
       </c>
+      <c r="K5" s="14">
+        <v>1.3005071159823327</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>

--- a/en/downloads/data-excel/8.3.1.2.xlsx
+++ b/en/downloads/data-excel/8.3.1.2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Малые предприятия</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -76,7 +85,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +147,13 @@
     <font>
       <sz val="9"/>
       <name val="Kyrghyz Times"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +208,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -233,6 +249,12 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -517,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -540,128 +562,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="J2" s="3"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="6">
         <v>2013</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="6">
         <v>2014</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F4" s="6">
         <v>2015</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G4" s="6">
         <v>2016</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H4" s="6">
         <v>2017</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I4" s="7">
         <v>2018</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J4" s="6">
         <v>2019</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K4" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E5" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G5" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H5" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I5" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J5" s="9">
         <v>3</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K5" s="13">
         <v>2.8218550629805335</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <v>1.6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="11">
         <v>1.6</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F6" s="11">
         <v>1.5</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G6" s="11">
         <v>1.5</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H6" s="11">
         <v>1.5</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I6" s="10">
         <v>1.4</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J6" s="10">
         <v>1.4</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K6" s="14">
         <v>1.3005071159823327</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/en/downloads/data-excel/8.3.1.2.xlsx
+++ b/en/downloads/data-excel/8.3.1.2.xlsx
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -256,6 +256,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 17" xfId="1"/>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -551,7 +554,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -562,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -581,7 +584,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -591,8 +594,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -626,8 +630,11 @@
       <c r="K4" s="12">
         <v>2020</v>
       </c>
+      <c r="L4" s="17">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -661,8 +668,11 @@
       <c r="K5" s="13">
         <v>2.8218550629805335</v>
       </c>
+      <c r="L5" s="18">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -696,8 +706,11 @@
       <c r="K6" s="14">
         <v>1.3005071159823327</v>
       </c>
+      <c r="L6" s="19">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>

--- a/en/downloads/data-excel/8.3.1.2.xlsx
+++ b/en/downloads/data-excel/8.3.1.2.xlsx
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -596,7 +596,7 @@
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -633,8 +633,11 @@
       <c r="L4" s="17">
         <v>2021</v>
       </c>
+      <c r="M4" s="12">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -671,8 +674,11 @@
       <c r="L5" s="18">
         <v>2.2999999999999998</v>
       </c>
+      <c r="M5" s="18">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -709,8 +715,11 @@
       <c r="L6" s="19">
         <v>1.3</v>
       </c>
+      <c r="M6" s="19">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>

--- a/en/downloads/data-excel/8.3.1.2.xlsx
+++ b/en/downloads/data-excel/8.3.1.2.xlsx
@@ -81,11 +81,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,10 +142,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Kyrghyz Times"/>
     </font>
     <font>
       <i/>
@@ -164,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -181,26 +176,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -208,7 +183,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -228,9 +203,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -243,22 +215,12 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 17" xfId="1"/>
@@ -545,7 +507,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -566,23 +528,23 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -593,10 +555,13 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -621,86 +586,86 @@
       <c r="H4" s="6">
         <v>2017</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>2018</v>
       </c>
       <c r="J4" s="6">
         <v>2019</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="6">
         <v>2020</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="6">
         <v>2021</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="6">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>2.2999999999999998</v>
       </c>
       <c r="I5" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>3</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="8">
         <v>2.8218550629805335</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="8">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>1.6</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>1.6</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>1.5</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>1.5</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>1.5</v>
       </c>
       <c r="I6" s="10">
@@ -709,13 +674,13 @@
       <c r="J6" s="10">
         <v>1.4</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="10">
         <v>1.3005071159823327</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="10">
         <v>1.3</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="10">
         <v>1.2</v>
       </c>
     </row>

--- a/en/downloads/data-excel/8.3.1.2.xlsx
+++ b/en/downloads/data-excel/8.3.1.2.xlsx
@@ -49,10 +49,6 @@
     <t>Medium-sized enterprises</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3.1.2 Экономикадагы иш менен камсыз болгон бардык калктын чакан жана орто ишканаларда иштегендердин үлүшү
-</t>
-  </si>
-  <si>
     <t>Чакан ишканалар</t>
   </si>
   <si>
@@ -75,6 +71,9 @@
   </si>
   <si>
     <t>(in percent)</t>
+  </si>
+  <si>
+    <t>8.3.1.2 Экономикадагы иш менен камсыз болгон бардык калктын чакан жана орто ишканаларда иштегендердин үлүшү</t>
   </si>
 </sst>
 </file>
@@ -504,11 +503,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -516,9 +513,9 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -527,15 +524,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -546,7 +543,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -560,16 +557,17 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="6">
         <v>2013</v>
@@ -601,10 +599,13 @@
       <c r="M4" s="6">
         <v>2022</v>
       </c>
+      <c r="N4" s="6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -642,10 +643,13 @@
       <c r="M5" s="8">
         <v>2.2000000000000002</v>
       </c>
+      <c r="N5" s="8">
+        <v>2.5449890821474286</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>1</v>
@@ -683,8 +687,11 @@
       <c r="M6" s="10">
         <v>1.2</v>
       </c>
+      <c r="N6" s="10">
+        <v>1.4569686017619159</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
